--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jirak\Desktop\Dashboard\1\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5237BD21-BCCA-4463-982D-E0051442ACB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA1613D4-E808-40D9-892D-6D9D674D32B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1452" yWindow="1800" windowWidth="17280" windowHeight="9960" xr2:uid="{643878E5-EE25-4EC3-8B47-572BA7BC8C91}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
